--- a/biology/Histoire de la zoologie et de la botanique/John_Stanley_Gardiner/John_Stanley_Gardiner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Stanley_Gardiner/John_Stanley_Gardiner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Stanley Gardiner est un zoologiste et un océanographe britannique, né le 24 janvier 1872 et mort le 28 février 1946.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de zoologie et d’anatomie comparée à Cambridge de 1909 à 1937. Il devient membre de la Royal Society en 1908 ; il reçoit la Médaille Darwin en 1944 et la Médaille linnéenne en 1936.
 </t>
@@ -542,7 +556,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clive Forster-Cooper (1947). John Stanley Gardiner (1872-1946), Obituary Notices of Fellows of the Royal Society, 5 (15) : 541-543.  (ISSN 1479-571X)</t>
         </is>
